--- a/Incubation/Hardware/Time4CM4_Sandwich/Time4CM4_SIT_module (05.11.2024 12-11-09)/Project Outputs for Time4CM4_SIT_module/Time4CM4_SIT_module.xlsx
+++ b/Incubation/Hardware/Time4CM4_Sandwich/Time4CM4_SIT_module (05.11.2024 12-11-09)/Project Outputs for Time4CM4_SIT_module/Time4CM4_SIT_module.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Downloads\Time4CM4_SIT_module (05.11.2024 12-11-09)\Project Outputs for Time4CM4_SIT_module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Incubation\Hardware\Time4CM4_Sandwich\Time4CM4_SIT_module (05.11.2024 12-11-09)\Project Outputs for Time4CM4_SIT_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9EF01-F2C5-445E-BB12-913BF611F7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC6852-0040-4A98-B31D-B1286850B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3273CE4D-F266-496A-B877-3CBEBAECD825}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3273CE4D-F266-496A-B877-3CBEBAECD825}"/>
   </bookViews>
   <sheets>
     <sheet name="Time4CM4_SIT_module 1" sheetId="1" r:id="rId1"/>
@@ -576,21 +576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0965CB7-73CD-4803-A924-4269B279584F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -820,21 +820,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BC6121-4FD3-46D8-A996-BF9F344BEDAE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
